--- a/BooksInfo.xlsx
+++ b/BooksInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>BookName</t>
   </si>

--- a/BooksInfo.xlsx
+++ b/BooksInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>BookName</t>
   </si>
